--- a/data/inquiry.xlsx
+++ b/data/inquiry.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban11/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban11-20231221-ai/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93C8C3F-BFFA-5A4C-B0C4-392290181624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74780E4-FAF1-F742-9812-CD1A0054E6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="-25320" windowWidth="29180" windowHeight="16820" xr2:uid="{CA7D6778-5998-D64D-8074-2A3983F7519C}"/>
+    <workbookView xWindow="7780" yWindow="-25340" windowWidth="29180" windowHeight="16820" xr2:uid="{CA7D6778-5998-D64D-8074-2A3983F7519C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>title</t>
   </si>
   <si>
-    <t>figure</t>
-  </si>
-  <si>
     <t>link</t>
   </si>
   <si>
@@ -60,10 +57,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-101.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://m.gas.goodlife.tw/gas</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -76,10 +69,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-102.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://1968.freeway.gov.tw/n_speed</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -88,10 +77,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-103.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.google.com/maps/d/edit?mid=1KjxHpFnLbtTVEeJhan-_xLJSaLTb1tKw&amp;usp=sharing</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -100,10 +85,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-104.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://towingnet.com.tw/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -112,10 +93,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-201.jpeg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.railway.gov.tw/tra-tip-web/tip/tip001/tip112/gobytime</t>
   </si>
   <si>
@@ -127,10 +104,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-202.jpeg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.thsrc.com.tw/ArticleContent/a3b630bb-1066-4352-a1ef-58c7b4e8ef7c</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -139,10 +112,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-203.jpeg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://m.metro.taipei/</t>
   </si>
   <si>
@@ -150,10 +119,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-204.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.tymetro.com.tw/tymetro-new/tw/_pages/travel-guide/timetable-search.php</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -162,10 +127,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-205.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://ebus.gov.taipei/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -174,10 +135,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-206.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://ebus.tycg.gov.tw/NewTaoyuan/Dybus.aspx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -186,10 +143,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-207.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://tycg.youbike.com.tw/station/map?_id=5cb7e421083e7b42664b87e2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -198,10 +151,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-601.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://epark.tycg.gov.tw/public/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -214,10 +163,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-602.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.mvdis.gov.tw/m3-emv-fee/fee/fuelFee</t>
   </si>
   <si>
@@ -225,10 +170,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-328.webp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://aitoolmall.com/zh/?_selection=image#pll_switcher</t>
   </si>
   <si>
@@ -244,10 +185,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-327.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.tcloud.gov.tw/</t>
   </si>
   <si>
@@ -255,10 +192,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-326.jpeg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://song.corp.com.tw/index.aspx</t>
   </si>
   <si>
@@ -266,10 +199,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-325.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.opentaipei.org/</t>
   </si>
   <si>
@@ -277,10 +206,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-324.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.saydigi.com/</t>
   </si>
   <si>
@@ -288,10 +213,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-323.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://elections.olc.tw/</t>
   </si>
   <si>
@@ -299,10 +220,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-322.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://votetw.com/data/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -311,10 +228,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-321.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://water.taiwanstat.com/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -323,10 +236,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-320.jpeg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://stroke-order.learningweb.moe.edu.tw/home.do</t>
   </si>
   <si>
@@ -334,10 +243,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-319.jpeg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://adr.npa.gov.tw/?fbclid=IwAR2XJsSni0LCsxyHicV78yYT1x7Wurg7iq11YDBF68tshCLKciOOzYuLCbY</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -346,19 +251,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-313.jpeg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.fosshub.com/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>格式轉換 Aconvert</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/AiCity-945-WebInformation-314.jpeg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -388,9 +285,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-315.jpeg</t>
-  </si>
-  <si>
     <t>https://gitmind.com/tw/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -412,9 +306,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-316.jpeg</t>
-  </si>
-  <si>
     <t>https://musclewiki.com/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -436,10 +327,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-317.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://soundcloud.com/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -448,9 +335,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-318.jpeg</t>
-  </si>
-  <si>
     <t>https://crystalidea.com/speedyfox</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -459,10 +343,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/XLK-1401-News/XLK-142-lzpan.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://lzpan.com/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -471,10 +351,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/XLK-1401-News/XLK-142-大數據導航.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>http://hao.199it.com/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -483,10 +359,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/XLK-1401-News/XLK-142-果汁排行榜.jpeg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>http://guozhivip.com/rank/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -495,10 +367,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-301.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>http://lotto2.arclink.com.tw/649/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -511,10 +379,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-302.jpeg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://tw.stock.yahoo.com/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -523,10 +387,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-303.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.etax.nat.gov.tw/etw-main/web/ETW183W1/</t>
   </si>
   <si>
@@ -534,19 +394,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-304.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://tw.live/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>天氣資訊查詢</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/AiCity-945-WebInformation-305.jpeg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -571,10 +423,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-310.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.windy.com/?24.989,121.318,5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -583,10 +431,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-306.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://easymap.land.moi.gov.tw/P02/Index</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -595,10 +439,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-307.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://market.591.com.tw/?refid=4&amp;gclid=Cj0KCQiAw_H-BRD-ARIsALQE_2NR1hr1mPPAfoyWGVaAIM_FL5036x8H5Fq_33pSGv66m97xxieLO_caAvlxEALw_wcB</t>
   </si>
   <si>
@@ -606,10 +446,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-308.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.twfood.cc/vege?page=2</t>
   </si>
   <si>
@@ -617,10 +453,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-309.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://airtw.epa.gov.tw/CHT/EnvMonitoring/Local/LocalMonitoring.aspx?Type=EPB</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -629,10 +461,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-401.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.post.gov.tw/post/internet/SearchZone/index.jsp?ID=130107</t>
   </si>
   <si>
@@ -640,10 +468,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-402.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.post.gov.tw/post/internet/Postal/index.jsp?ID=207</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -652,10 +476,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-403.jpeg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://tw.exchange-rates.org/converter</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -664,10 +484,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-404.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://fast.com/zh/tw/#</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -676,10 +492,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-405.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.bli.gov.tw/0014162.html</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -688,10 +500,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-406.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://toolbxs.com/zh-TW/converter/unit</t>
   </si>
   <si>
@@ -699,10 +507,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-407.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.designevo.com/tw/logo-maker/" title="免費線上logo製作軟體</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -711,10 +515,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-408.jpeg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.tgos.tw/tgos/Web/Address/TGOS_Address.aspx?fbclid=IwAR2Y2QtTuEYl3uACZLVuKsCnHcCj7Y301aApNkc3tJIUZLl7H8956P4gpu0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -877,6 +677,162 @@
   </si>
   <si>
     <t>050</t>
+  </si>
+  <si>
+    <t>figure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inquiry-001.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inquiry-002.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inquiry-003.png</t>
+  </si>
+  <si>
+    <t>inquiry-004.png</t>
+  </si>
+  <si>
+    <t>inquiry-005.png</t>
+  </si>
+  <si>
+    <t>inquiry-006.png</t>
+  </si>
+  <si>
+    <t>inquiry-007.png</t>
+  </si>
+  <si>
+    <t>inquiry-008.png</t>
+  </si>
+  <si>
+    <t>inquiry-009.png</t>
+  </si>
+  <si>
+    <t>inquiry-010.png</t>
+  </si>
+  <si>
+    <t>inquiry-011.png</t>
+  </si>
+  <si>
+    <t>inquiry-012.png</t>
+  </si>
+  <si>
+    <t>inquiry-013.png</t>
+  </si>
+  <si>
+    <t>inquiry-014.png</t>
+  </si>
+  <si>
+    <t>inquiry-015.png</t>
+  </si>
+  <si>
+    <t>inquiry-016.png</t>
+  </si>
+  <si>
+    <t>inquiry-017.png</t>
+  </si>
+  <si>
+    <t>inquiry-018.png</t>
+  </si>
+  <si>
+    <t>inquiry-019.png</t>
+  </si>
+  <si>
+    <t>inquiry-020.png</t>
+  </si>
+  <si>
+    <t>inquiry-021.png</t>
+  </si>
+  <si>
+    <t>inquiry-022.png</t>
+  </si>
+  <si>
+    <t>inquiry-023.png</t>
+  </si>
+  <si>
+    <t>inquiry-024.png</t>
+  </si>
+  <si>
+    <t>inquiry-025.png</t>
+  </si>
+  <si>
+    <t>inquiry-026.png</t>
+  </si>
+  <si>
+    <t>inquiry-027.png</t>
+  </si>
+  <si>
+    <t>inquiry-028.png</t>
+  </si>
+  <si>
+    <t>inquiry-029.png</t>
+  </si>
+  <si>
+    <t>inquiry-030.png</t>
+  </si>
+  <si>
+    <t>inquiry-031.png</t>
+  </si>
+  <si>
+    <t>inquiry-032.png</t>
+  </si>
+  <si>
+    <t>inquiry-033.png</t>
+  </si>
+  <si>
+    <t>inquiry-034.png</t>
+  </si>
+  <si>
+    <t>inquiry-035.png</t>
+  </si>
+  <si>
+    <t>inquiry-036.png</t>
+  </si>
+  <si>
+    <t>inquiry-037.png</t>
+  </si>
+  <si>
+    <t>inquiry-038.png</t>
+  </si>
+  <si>
+    <t>inquiry-039.png</t>
+  </si>
+  <si>
+    <t>inquiry-040.png</t>
+  </si>
+  <si>
+    <t>inquiry-041.png</t>
+  </si>
+  <si>
+    <t>inquiry-042.png</t>
+  </si>
+  <si>
+    <t>inquiry-043.png</t>
+  </si>
+  <si>
+    <t>inquiry-044.png</t>
+  </si>
+  <si>
+    <t>inquiry-045.png</t>
+  </si>
+  <si>
+    <t>inquiry-046.png</t>
+  </si>
+  <si>
+    <t>inquiry-047.png</t>
+  </si>
+  <si>
+    <t>inquiry-048.png</t>
+  </si>
+  <si>
+    <t>inquiry-049.png</t>
+  </si>
+  <si>
+    <t>inquiry-050.png</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1245,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A51"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1311,1218 +1267,1218 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="17" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H2"/>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="17" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H4"/>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H28"/>
     </row>
     <row r="29" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H29"/>
     </row>
     <row r="30" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H30"/>
     </row>
     <row r="31" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H31"/>
     </row>
     <row r="32" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H32"/>
     </row>
     <row r="33" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H33"/>
     </row>
     <row r="34" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="D34" s="4" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H34"/>
     </row>
     <row r="35" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A35" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="D35" s="4" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H35"/>
     </row>
     <row r="36" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A36" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="D36" s="3" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H36"/>
     </row>
     <row r="37" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H37"/>
     </row>
     <row r="38" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H38"/>
     </row>
     <row r="39" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A39" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="D39" s="4" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H39"/>
     </row>
     <row r="40" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A40" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="D40" s="4" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H40"/>
     </row>
     <row r="41" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A41" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="D41" s="3" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H41"/>
     </row>
     <row r="42" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A42" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="D42" s="3" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H42"/>
     </row>
     <row r="43" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A43" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="D43" s="4" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H43"/>
     </row>
     <row r="44" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A44" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="D44" s="3" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H44"/>
     </row>
     <row r="45" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A45" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="D45" s="4" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H45"/>
     </row>
     <row r="46" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A46" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="D46" s="4" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H46"/>
     </row>
     <row r="47" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A47" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="D47" s="4" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H47"/>
     </row>
     <row r="48" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A48" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="D48" s="4" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H48"/>
     </row>
     <row r="49" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A49" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="D49" s="3" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H49"/>
     </row>
     <row r="50" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A50" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="D50" s="4" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H50"/>
     </row>
     <row r="51" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A51" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="D51" s="4" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H51"/>
     </row>

--- a/data/inquiry.xlsx
+++ b/data/inquiry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban11-20231221-ai/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban11/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74780E4-FAF1-F742-9812-CD1A0054E6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4309E2-84D3-9A42-AAC2-5958A5E0469E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7780" yWindow="-25340" windowWidth="29180" windowHeight="16820" xr2:uid="{CA7D6778-5998-D64D-8074-2A3983F7519C}"/>
+    <workbookView xWindow="22920" yWindow="-17080" windowWidth="29180" windowHeight="16820" xr2:uid="{CA7D6778-5998-D64D-8074-2A3983F7519C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="218">
   <si>
     <t>no</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -834,12 +834,39 @@
   <si>
     <t>inquiry-050.png</t>
   </si>
+  <si>
+    <t>051</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tellows </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>誰打來的電話？</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inquiry-051.png</t>
+  </si>
+  <si>
+    <t>https://www.tellows.tw/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -890,6 +917,13 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -916,7 +950,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -926,6 +960,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -945,9 +980,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -985,7 +1020,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1091,7 +1126,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1233,7 +1268,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1241,11 +1276,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991D6833-3C43-A045-AD0E-AAC76CF66741}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1284,19 +1319,19 @@
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="17" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>215</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>216</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>37</v>
@@ -1304,23 +1339,23 @@
       <c r="G2" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="17" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>162</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>37</v>
@@ -1332,19 +1367,19 @@
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A4" s="1" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>37</v>
@@ -1356,19 +1391,19 @@
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>211</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>37</v>
@@ -1380,19 +1415,19 @@
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>210</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>37</v>
@@ -1404,19 +1439,19 @@
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A7" s="1" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>37</v>
@@ -1428,19 +1463,19 @@
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A8" s="1" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>208</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>37</v>
@@ -1452,19 +1487,19 @@
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A9" s="1" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>37</v>
@@ -1476,19 +1511,19 @@
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A10" s="1" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>24</v>
+        <v>206</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>37</v>
@@ -1500,19 +1535,19 @@
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A11" s="1" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>37</v>
@@ -1524,19 +1559,19 @@
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A12" s="1" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>28</v>
+        <v>204</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>37</v>
@@ -1548,19 +1583,19 @@
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A13" s="1" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>30</v>
+        <v>203</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>37</v>
@@ -1572,19 +1607,19 @@
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A14" s="1" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>33</v>
+        <v>202</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>37</v>
@@ -1596,19 +1631,19 @@
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A15" s="1" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>35</v>
+        <v>201</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>37</v>
@@ -1620,19 +1655,19 @@
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A16" s="1" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>39</v>
+        <v>200</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>37</v>
@@ -1644,19 +1679,19 @@
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A17" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>148</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>41</v>
+        <v>199</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>37</v>
@@ -1668,19 +1703,19 @@
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A18" s="1" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>37</v>
@@ -1692,19 +1727,19 @@
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A19" s="1" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>45</v>
+        <v>197</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>37</v>
@@ -1716,19 +1751,19 @@
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A20" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>46</v>
+        <v>145</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>47</v>
+        <v>196</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>37</v>
@@ -1740,16 +1775,16 @@
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A21" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>36</v>
@@ -1764,16 +1799,16 @@
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A22" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>36</v>
@@ -1788,16 +1823,16 @@
     </row>
     <row r="23" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A23" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>53</v>
+        <v>193</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>36</v>
@@ -1812,16 +1847,16 @@
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A24" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>36</v>
@@ -1836,16 +1871,16 @@
     </row>
     <row r="25" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A25" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>36</v>
@@ -1860,16 +1895,16 @@
     </row>
     <row r="26" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A26" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B26" t="s">
-        <v>58</v>
+        <v>139</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>36</v>
@@ -1908,16 +1943,16 @@
     </row>
     <row r="28" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>62</v>
+        <v>137</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>36</v>
@@ -1932,16 +1967,16 @@
     </row>
     <row r="29" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A29" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>36</v>
@@ -1956,16 +1991,16 @@
     </row>
     <row r="30" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A30" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>36</v>
@@ -1980,16 +2015,16 @@
     </row>
     <row r="31" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A31" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>69</v>
+        <v>185</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>36</v>
@@ -2004,16 +2039,16 @@
     </row>
     <row r="32" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A32" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>36</v>
@@ -2028,16 +2063,16 @@
     </row>
     <row r="33" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A33" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>36</v>
@@ -2052,19 +2087,19 @@
     </row>
     <row r="34" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A34" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>74</v>
+        <v>131</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>75</v>
+        <v>182</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>37</v>
@@ -2076,19 +2111,19 @@
     </row>
     <row r="35" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A35" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>78</v>
+        <v>181</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>37</v>
@@ -2100,19 +2135,19 @@
     </row>
     <row r="36" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A36" s="1" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>37</v>
@@ -2124,19 +2159,19 @@
     </row>
     <row r="37" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A37" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>81</v>
+        <v>128</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>82</v>
+        <v>179</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>37</v>
@@ -2148,19 +2183,19 @@
     </row>
     <row r="38" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A38" s="1" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>84</v>
+        <v>178</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>37</v>
@@ -2172,19 +2207,19 @@
     </row>
     <row r="39" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A39" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>86</v>
+        <v>177</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>37</v>
@@ -2196,19 +2231,19 @@
     </row>
     <row r="40" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A40" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>88</v>
+        <v>176</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>37</v>
@@ -2220,19 +2255,19 @@
     </row>
     <row r="41" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A41" s="1" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>90</v>
+        <v>175</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>37</v>
@@ -2244,19 +2279,19 @@
     </row>
     <row r="42" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A42" s="1" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>92</v>
+        <v>174</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>37</v>
@@ -2268,19 +2303,19 @@
     </row>
     <row r="43" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A43" s="1" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>37</v>
@@ -2292,19 +2327,19 @@
     </row>
     <row r="44" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A44" s="1" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>96</v>
+        <v>172</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>37</v>
@@ -2316,19 +2351,19 @@
     </row>
     <row r="45" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A45" s="1" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>37</v>
@@ -2340,19 +2375,19 @@
     </row>
     <row r="46" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A46" s="1" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>100</v>
+        <v>170</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>37</v>
@@ -2364,19 +2399,19 @@
     </row>
     <row r="47" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A47" s="1" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>37</v>
@@ -2388,19 +2423,19 @@
     </row>
     <row r="48" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A48" s="1" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>104</v>
+        <v>168</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>37</v>
@@ -2412,19 +2447,19 @@
     </row>
     <row r="49" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A49" s="1" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>106</v>
+        <v>167</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>37</v>
@@ -2436,19 +2471,19 @@
     </row>
     <row r="50" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A50" s="1" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>37</v>
@@ -2460,19 +2495,19 @@
     </row>
     <row r="51" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A51" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>109</v>
+        <v>114</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>37</v>
@@ -2482,44 +2517,72 @@
       </c>
       <c r="H51"/>
     </row>
+    <row r="52" spans="1:8" ht="16">
+      <c r="A52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H52"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H52">
+    <sortCondition descending="1" ref="A2:A52"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{91F82650-8651-5B4C-ABBA-D7FEF21383EA}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{0A477C98-073F-F442-AA1C-9BA5975C12BA}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{11FAC34F-7A8D-4E40-B09A-EC796869A5E7}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{017C000E-A086-0845-8A75-F05DCED4EE2B}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{99003211-C568-A341-AAB9-B280B96B4CAC}"/>
-    <hyperlink ref="D12" r:id="rId6" xr:uid="{B00ABDF1-8C5F-1F45-83C0-AF1A51B3E744}"/>
-    <hyperlink ref="D10" r:id="rId7" xr:uid="{D274CB5E-160C-3C47-A845-DF2BC54647E8}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{C00839E1-0F00-BE45-8A34-8F3F2F92BDA5}"/>
-    <hyperlink ref="D11" r:id="rId9" xr:uid="{0AFB2299-3CB3-0B46-8481-42C16064E20A}"/>
-    <hyperlink ref="D34" r:id="rId10" xr:uid="{021BD049-DE5A-B44F-BDE4-F1A0A4FC6633}"/>
-    <hyperlink ref="D35" r:id="rId11" xr:uid="{2170D788-E3E8-2D4C-8FBB-1B99089E58C8}"/>
-    <hyperlink ref="D37" r:id="rId12" xr:uid="{4EA912D6-FEB9-3F40-8115-D1380D11316D}"/>
-    <hyperlink ref="D38" r:id="rId13" xr:uid="{9507ECE7-0253-A242-AD96-A2E33AA7779E}"/>
-    <hyperlink ref="D40" r:id="rId14" xr:uid="{EAB5024F-C2DE-7941-B27F-914693C9952D}"/>
-    <hyperlink ref="D45" r:id="rId15" xr:uid="{8596077A-3B79-094A-B79D-01F5BF38540D}"/>
-    <hyperlink ref="D46" r:id="rId16" xr:uid="{C429E317-96B9-CF43-BF15-B56FB8CE57EF}"/>
-    <hyperlink ref="D47" r:id="rId17" xr:uid="{0B73A76A-87CD-8B42-BAC3-F1BE5CE892B2}"/>
-    <hyperlink ref="D48" r:id="rId18" xr:uid="{16480956-2F18-E04C-986A-1E90D5196190}"/>
-    <hyperlink ref="D13" r:id="rId19" xr:uid="{54E557A4-4BB2-0A48-8977-8FE4160D9F34}"/>
-    <hyperlink ref="D43" r:id="rId20" xr:uid="{1C12BDEF-7030-3D4E-85EF-927DB05E0005}"/>
-    <hyperlink ref="D50" r:id="rId21" xr:uid="{08C6EA4D-23D5-DB46-B656-F47379804B87}"/>
-    <hyperlink ref="D51" r:id="rId22" xr:uid="{D1910064-3A5A-1F4A-9036-D500D32536EC}"/>
-    <hyperlink ref="D39" r:id="rId23" xr:uid="{60568C11-8BD2-7C46-A934-B948B51199FA}"/>
-    <hyperlink ref="D33" r:id="rId24" xr:uid="{E7E18681-FCC0-5644-A75E-6DFF116AC2CB}"/>
-    <hyperlink ref="D32" r:id="rId25" xr:uid="{0FD8E082-C971-E441-8C92-327EB6F72001}"/>
-    <hyperlink ref="D31" r:id="rId26" xr:uid="{8AFEA16D-F50A-8349-8C4A-36DD0A074745}"/>
-    <hyperlink ref="D25" r:id="rId27" xr:uid="{A7319D9F-74A8-6C43-861C-B6760F4CC433}"/>
-    <hyperlink ref="D26" r:id="rId28" xr:uid="{637A35E2-60B7-9742-954A-9FD9D28E90B6}"/>
+    <hyperlink ref="D52" r:id="rId1" xr:uid="{91F82650-8651-5B4C-ABBA-D7FEF21383EA}"/>
+    <hyperlink ref="D51" r:id="rId2" xr:uid="{0A477C98-073F-F442-AA1C-9BA5975C12BA}"/>
+    <hyperlink ref="D50" r:id="rId3" xr:uid="{11FAC34F-7A8D-4E40-B09A-EC796869A5E7}"/>
+    <hyperlink ref="D49" r:id="rId4" xr:uid="{017C000E-A086-0845-8A75-F05DCED4EE2B}"/>
+    <hyperlink ref="D47" r:id="rId5" xr:uid="{99003211-C568-A341-AAB9-B280B96B4CAC}"/>
+    <hyperlink ref="D42" r:id="rId6" xr:uid="{B00ABDF1-8C5F-1F45-83C0-AF1A51B3E744}"/>
+    <hyperlink ref="D44" r:id="rId7" xr:uid="{D274CB5E-160C-3C47-A845-DF2BC54647E8}"/>
+    <hyperlink ref="D45" r:id="rId8" xr:uid="{C00839E1-0F00-BE45-8A34-8F3F2F92BDA5}"/>
+    <hyperlink ref="D43" r:id="rId9" xr:uid="{0AFB2299-3CB3-0B46-8481-42C16064E20A}"/>
+    <hyperlink ref="D20" r:id="rId10" xr:uid="{021BD049-DE5A-B44F-BDE4-F1A0A4FC6633}"/>
+    <hyperlink ref="D19" r:id="rId11" xr:uid="{2170D788-E3E8-2D4C-8FBB-1B99089E58C8}"/>
+    <hyperlink ref="D17" r:id="rId12" xr:uid="{4EA912D6-FEB9-3F40-8115-D1380D11316D}"/>
+    <hyperlink ref="D16" r:id="rId13" xr:uid="{9507ECE7-0253-A242-AD96-A2E33AA7779E}"/>
+    <hyperlink ref="D14" r:id="rId14" xr:uid="{EAB5024F-C2DE-7941-B27F-914693C9952D}"/>
+    <hyperlink ref="D9" r:id="rId15" xr:uid="{8596077A-3B79-094A-B79D-01F5BF38540D}"/>
+    <hyperlink ref="D8" r:id="rId16" xr:uid="{C429E317-96B9-CF43-BF15-B56FB8CE57EF}"/>
+    <hyperlink ref="D7" r:id="rId17" xr:uid="{0B73A76A-87CD-8B42-BAC3-F1BE5CE892B2}"/>
+    <hyperlink ref="D6" r:id="rId18" xr:uid="{16480956-2F18-E04C-986A-1E90D5196190}"/>
+    <hyperlink ref="D41" r:id="rId19" xr:uid="{54E557A4-4BB2-0A48-8977-8FE4160D9F34}"/>
+    <hyperlink ref="D11" r:id="rId20" xr:uid="{1C12BDEF-7030-3D4E-85EF-927DB05E0005}"/>
+    <hyperlink ref="D4" r:id="rId21" xr:uid="{08C6EA4D-23D5-DB46-B656-F47379804B87}"/>
+    <hyperlink ref="D3" r:id="rId22" xr:uid="{D1910064-3A5A-1F4A-9036-D500D32536EC}"/>
+    <hyperlink ref="D15" r:id="rId23" xr:uid="{60568C11-8BD2-7C46-A934-B948B51199FA}"/>
+    <hyperlink ref="D21" r:id="rId24" xr:uid="{E7E18681-FCC0-5644-A75E-6DFF116AC2CB}"/>
+    <hyperlink ref="D22" r:id="rId25" xr:uid="{0FD8E082-C971-E441-8C92-327EB6F72001}"/>
+    <hyperlink ref="D23" r:id="rId26" xr:uid="{8AFEA16D-F50A-8349-8C4A-36DD0A074745}"/>
+    <hyperlink ref="D29" r:id="rId27" xr:uid="{A7319D9F-74A8-6C43-861C-B6760F4CC433}"/>
+    <hyperlink ref="D28" r:id="rId28" xr:uid="{637A35E2-60B7-9742-954A-9FD9D28E90B6}"/>
     <hyperlink ref="D27" r:id="rId29" xr:uid="{891163BD-F0DA-8341-88F1-D7100F97BE5E}"/>
-    <hyperlink ref="D28" r:id="rId30" xr:uid="{110BDD7E-B796-754A-A8AD-87DBBB00086F}"/>
-    <hyperlink ref="D29" r:id="rId31" xr:uid="{EE7097CC-B470-694E-A403-F775773F6A67}"/>
-    <hyperlink ref="D30" r:id="rId32" xr:uid="{D9C3CE3D-D2CA-C246-BE63-FE0368B70876}"/>
-    <hyperlink ref="D24" r:id="rId33" xr:uid="{D79A37F3-EA33-274D-83CD-36AE1DA90367}"/>
-    <hyperlink ref="D22" r:id="rId34" xr:uid="{716274CC-6E78-2A46-9003-B1F52838DCEE}"/>
-    <hyperlink ref="D21" r:id="rId35" xr:uid="{33D23B89-B307-D447-8906-DC3D27F48890}"/>
+    <hyperlink ref="D26" r:id="rId30" xr:uid="{110BDD7E-B796-754A-A8AD-87DBBB00086F}"/>
+    <hyperlink ref="D25" r:id="rId31" xr:uid="{EE7097CC-B470-694E-A403-F775773F6A67}"/>
+    <hyperlink ref="D24" r:id="rId32" xr:uid="{D9C3CE3D-D2CA-C246-BE63-FE0368B70876}"/>
+    <hyperlink ref="D30" r:id="rId33" xr:uid="{D79A37F3-EA33-274D-83CD-36AE1DA90367}"/>
+    <hyperlink ref="D32" r:id="rId34" xr:uid="{716274CC-6E78-2A46-9003-B1F52838DCEE}"/>
+    <hyperlink ref="D33" r:id="rId35" xr:uid="{33D23B89-B307-D447-8906-DC3D27F48890}"/>
+    <hyperlink ref="D2" r:id="rId36" xr:uid="{1345C191-8478-EB47-B18B-3D42B698083C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
